--- a/1. DOC VIETTEL/Plan thang 10 _VT_SOPEN.XLSX
+++ b/1. DOC VIETTEL/Plan thang 10 _VT_SOPEN.XLSX
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mywork\2022\Projects\Bo GTVT\PM\Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022 - PROJECT\qlcb-bogtvt-documents\1. DOC VIETTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B48DD1-9206-4367-B710-09016B75E443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế hoạch chi tiết" sheetId="1" r:id="rId1"/>
@@ -25,10 +26,18 @@
     <definedName name="N_V">[2]NV!$B$2:$B$5</definedName>
     <definedName name="TenKH">[3]CRM!$E$2:$E$816</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -425,7 +434,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -573,12 +582,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -591,13 +594,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -624,9 +624,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -636,20 +633,14 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -666,200 +657,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="76">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6157,7 +5971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6167,65 +5981,65 @@
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="28.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="36.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" style="1" customWidth="1"/>
     <col min="13" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5"/>
@@ -6233,17 +6047,17 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="21"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="5"/>
@@ -6251,15 +6065,15 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="21"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5"/>
@@ -6267,15 +6081,15 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="21"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -6286,25 +6100,25 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="25">
+      <c r="G5" s="21">
         <v>4</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>44837</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <f t="shared" ref="I5" si="0">WORKDAY(H5,G5)</f>
         <v>44841</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="21"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -6315,28 +6129,28 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="25">
+      <c r="G6" s="21">
         <v>3</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <f>WORKDAY(I5,1)</f>
         <v>44844</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <f t="shared" ref="I6" si="1">WORKDAY(H6,G6)</f>
         <v>44847</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="21"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="11">
         <v>1.2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="5"/>
@@ -6346,13 +6160,13 @@
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="21"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="5"/>
@@ -6360,15 +6174,15 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="21"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -6386,22 +6200,22 @@
       <c r="G9" s="5">
         <v>1</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>44832</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <f t="shared" ref="I9" si="2">WORKDAY(H9,G9)</f>
         <v>44833</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="21"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="5"/>
@@ -6409,15 +6223,15 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="21"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="21" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -6435,22 +6249,22 @@
       <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>44837</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <f t="shared" ref="I11" si="3">WORKDAY(H11,G11)</f>
         <v>44837</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -6468,23 +6282,23 @@
       <c r="G12" s="5">
         <v>1</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <f>WORKDAY(I11,1)</f>
         <v>44838</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <f t="shared" ref="I12" si="4">WORKDAY(H12,G12)</f>
         <v>44839</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="21"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="21" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -6502,23 +6316,23 @@
       <c r="G13" s="5">
         <v>0</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <f t="shared" ref="H13:H14" si="5">WORKDAY(I12,1)</f>
         <v>44840</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <f t="shared" ref="I13:I16" si="6">WORKDAY(H13,G13)</f>
         <v>44840</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="21"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -6536,23 +6350,23 @@
       <c r="G14" s="5">
         <v>0</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="6">
         <f t="shared" si="5"/>
         <v>44841</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <f t="shared" si="6"/>
         <v>44841</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="21"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="21" t="s">
         <v>83</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -6570,22 +6384,22 @@
       <c r="G15" s="5">
         <v>0</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="6">
         <v>44837</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="6">
         <f t="shared" si="6"/>
         <v>44837</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="21" t="s">
         <v>84</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -6603,23 +6417,23 @@
       <c r="G16" s="5">
         <v>1</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="6">
         <f>WORKDAY(I15,1)</f>
         <v>44838</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <f t="shared" si="6"/>
         <v>44839</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K16" s="21"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="21" t="s">
         <v>85</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -6637,23 +6451,23 @@
       <c r="G17" s="5">
         <v>0</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <f t="shared" ref="H17:H18" si="7">WORKDAY(I16,1)</f>
         <v>44840</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <f t="shared" ref="I17:I18" si="8">WORKDAY(H17,G17)</f>
         <v>44840</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K17" s="21"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="21" t="s">
         <v>86</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -6671,23 +6485,23 @@
       <c r="G18" s="5">
         <v>0</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <f t="shared" si="7"/>
         <v>44841</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <f t="shared" si="8"/>
         <v>44841</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="21"/>
+      <c r="K18" s="18"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="5"/>
@@ -6695,15 +6509,15 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="21"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="18"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="21" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="5"/>
@@ -6713,23 +6527,23 @@
       <c r="G20" s="5">
         <v>3</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="6">
         <f>WORKDAY(I17,1)</f>
         <v>44841</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
         <f t="shared" ref="I20:I25" si="9">WORKDAY(H20,G20)</f>
         <v>44846</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="21" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="5"/>
@@ -6739,23 +6553,23 @@
       <c r="G21" s="5">
         <v>3</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <f t="shared" ref="H21:H25" si="10">WORKDAY(I20,1)</f>
         <v>44847</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="6">
         <f t="shared" si="9"/>
         <v>44852</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K21" s="21"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="21" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="5"/>
@@ -6765,23 +6579,23 @@
       <c r="G22" s="5">
         <v>3</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="6">
         <f t="shared" si="10"/>
         <v>44853</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="6">
         <f t="shared" si="9"/>
         <v>44858</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K22" s="21"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="5"/>
@@ -6791,23 +6605,23 @@
       <c r="G23" s="5">
         <v>1</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="6">
         <f t="shared" si="10"/>
         <v>44859</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="6">
         <f t="shared" si="9"/>
         <v>44860</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K23" s="22"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="21" t="s">
         <v>100</v>
       </c>
       <c r="C24" s="5"/>
@@ -6817,23 +6631,23 @@
       <c r="G24" s="5">
         <v>3</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="6">
         <f t="shared" si="10"/>
         <v>44861</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="6">
         <f t="shared" si="9"/>
         <v>44866</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K24" s="22"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="21" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="5"/>
@@ -6843,25 +6657,25 @@
       <c r="G25" s="5">
         <v>2</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="6">
         <f t="shared" si="10"/>
         <v>44867</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="6">
         <f t="shared" si="9"/>
         <v>44869</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="22"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="11">
         <v>1.3</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="5"/>
@@ -6869,15 +6683,15 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="21"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="5"/>
@@ -6885,15 +6699,15 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="21"/>
+      <c r="K27" s="18"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="21" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -6911,17 +6725,17 @@
       <c r="G28" s="5">
         <v>2</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="6">
         <v>44845</v>
       </c>
-      <c r="I28" s="8">
-        <f t="shared" ref="I28:I32" si="11">WORKDAY(H28,G28)</f>
+      <c r="I28" s="6">
+        <f t="shared" ref="I28:I30" si="11">WORKDAY(H28,G28)</f>
         <v>44847</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="19" t="s">
         <v>118</v>
       </c>
       <c r="L28" s="4" t="s">
@@ -6929,8 +6743,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="25" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -6948,60 +6762,60 @@
       <c r="G29" s="5">
         <v>2</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="6">
         <v>44845</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="6">
         <f t="shared" ref="I29" si="12">WORKDAY(H29,G29)</f>
         <v>44847</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="19" t="s">
         <v>119</v>
       </c>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="26">
         <v>6</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="27">
         <f>WORKDAY(I28,1)</f>
         <v>44848</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="27">
         <f t="shared" si="11"/>
         <v>44858</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34" t="s">
+      <c r="K30" s="28"/>
+      <c r="L30" s="28" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -7011,12 +6825,12 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="7" t="s">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="K31" s="19" t="s">
         <v>120</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -7024,43 +6838,43 @@
       </c>
     </row>
     <row r="32" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="31" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="26">
         <v>6</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="27">
         <f>WORKDAY(I28,1)</f>
         <v>44848</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="27">
         <f t="shared" ref="I32" si="13">WORKDAY(H32,G32)</f>
         <v>44858</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L32" s="34" t="s">
+      <c r="L32" s="28" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="26" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="22" t="s">
         <v>84</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -7079,47 +6893,47 @@
       <c r="J33" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L33" s="34" t="s">
+      <c r="L33" s="28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="38" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="30">
         <v>7</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="31">
         <v>44847</v>
       </c>
-      <c r="I34" s="37">
-        <f t="shared" ref="I33:I36" si="14">WORKDAY(H34,G34)</f>
+      <c r="I34" s="31">
+        <f t="shared" ref="I34:I36" si="14">WORKDAY(H34,G34)</f>
         <v>44858</v>
       </c>
-      <c r="J34" s="36" t="s">
+      <c r="J34" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L34" s="35" t="s">
+      <c r="L34" s="29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="25" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="21" t="s">
         <v>86</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -7133,17 +6947,17 @@
         <v>91</v>
       </c>
       <c r="G35" s="5"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="7" t="s">
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K35" s="23"/>
+      <c r="K35" s="19"/>
       <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="25" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="21" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -7157,23 +6971,23 @@
       <c r="G36" s="5">
         <v>0</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="6">
         <f>WORKDAY(I29,1)</f>
         <v>44848</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="6">
         <f t="shared" si="14"/>
         <v>44848</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K36" s="23"/>
+      <c r="K36" s="19"/>
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="25" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="21" t="s">
         <v>88</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -7187,39 +7001,39 @@
       <c r="G37" s="5">
         <v>0</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="6">
         <f>WORKDAY(I32,1)</f>
         <v>44859</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="6">
         <f t="shared" ref="I37" si="15">WORKDAY(H37,G37)</f>
         <v>44859</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K37" s="23"/>
+      <c r="K37" s="19"/>
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="24" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="21"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="18"/>
       <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="25" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -7233,23 +7047,23 @@
       <c r="G39" s="5">
         <v>1</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="6">
         <f>WORKDAY(I37,1)</f>
         <v>44860</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="6">
         <f t="shared" ref="I39" si="16">WORKDAY(H39,G39)</f>
         <v>44861</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K39" s="21"/>
+      <c r="K39" s="18"/>
       <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="25" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -7263,23 +7077,23 @@
       <c r="G40" s="5">
         <v>1</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="6">
         <f t="shared" ref="H40:H43" si="17">WORKDAY(I39,1)</f>
         <v>44862</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="6">
         <f t="shared" ref="I40:I41" si="18">WORKDAY(H40,G40)</f>
         <v>44865</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K40" s="21"/>
+      <c r="K40" s="18"/>
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="25" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -7293,23 +7107,23 @@
       <c r="G41" s="5">
         <v>1</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="6">
         <f t="shared" si="17"/>
         <v>44866</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="6">
         <f t="shared" si="18"/>
         <v>44867</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K41" s="21"/>
+      <c r="K41" s="18"/>
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="25" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -7323,23 +7137,23 @@
       <c r="G42" s="5">
         <v>1</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="6">
         <f t="shared" si="17"/>
         <v>44868</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="6">
         <f t="shared" ref="I42:I43" si="19">WORKDAY(H42,G42)</f>
         <v>44869</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K42" s="21"/>
+      <c r="K42" s="18"/>
       <c r="L42" s="4"/>
     </row>
     <row r="43" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="25" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -7355,63 +7169,63 @@
       <c r="G43" s="5">
         <v>1</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="6">
         <f t="shared" si="17"/>
         <v>44872</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="6">
         <f t="shared" si="19"/>
         <v>44873</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K43" s="21"/>
+      <c r="K43" s="18"/>
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="11">
         <v>1.4</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="23"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="19"/>
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="24" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="23"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="19"/>
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="25" t="s">
+      <c r="A46" s="12"/>
+      <c r="B46" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -7423,29 +7237,29 @@
       <c r="G46" s="5">
         <v>3</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="6">
         <f>WORKDAY(I20,1)</f>
         <v>44847</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="6">
         <f t="shared" ref="I46" si="20">WORKDAY(H46,G46)</f>
         <v>44852</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K46" s="21"/>
+      <c r="K46" s="18"/>
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="25" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -7457,29 +7271,29 @@
       <c r="G47" s="5">
         <v>3</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="6">
         <f>WORKDAY(I46,1)</f>
         <v>44853</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="6">
         <f t="shared" ref="I47" si="21">WORKDAY(H47,G47)</f>
         <v>44858</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K47" s="21"/>
+      <c r="K47" s="18"/>
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="25" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -7491,29 +7305,29 @@
       <c r="G48" s="5">
         <v>3</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="6">
         <f>WORKDAY(I47,1)</f>
         <v>44859</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="6">
         <f t="shared" ref="I48" si="22">WORKDAY(H48,G48)</f>
         <v>44862</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K48" s="21"/>
+      <c r="K48" s="18"/>
       <c r="L48" s="4"/>
     </row>
     <row r="49" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="25" t="s">
+      <c r="A49" s="11"/>
+      <c r="B49" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -7525,29 +7339,29 @@
       <c r="G49" s="5">
         <v>0</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="6">
         <f>WORKDAY(I47,1)</f>
         <v>44859</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="6">
         <f t="shared" ref="I49:I50" si="23">WORKDAY(H49,G49)</f>
         <v>44859</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K49" s="21"/>
+      <c r="K49" s="18"/>
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="25" t="s">
+      <c r="A50" s="11"/>
+      <c r="B50" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E50" s="5" t="s">
@@ -7559,23 +7373,23 @@
       <c r="G50" s="5">
         <v>2</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="6">
         <f>WORKDAY(I49,1)</f>
         <v>44860</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="6">
         <f t="shared" si="23"/>
         <v>44862</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J50" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K50" s="21"/>
+      <c r="K50" s="18"/>
       <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="24" t="s">
+      <c r="A51" s="12"/>
+      <c r="B51" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C51" s="5"/>
@@ -7583,21 +7397,21 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="21"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="18"/>
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="25" t="s">
+      <c r="A52" s="12"/>
+      <c r="B52" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -7609,29 +7423,29 @@
       <c r="G52" s="5">
         <v>3</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="6">
         <f>WORKDAY(I29,1)</f>
         <v>44848</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="6">
         <f t="shared" ref="I52" si="24">WORKDAY(H52,G52)</f>
         <v>44853</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K52" s="21"/>
+      <c r="K52" s="18"/>
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="25" t="s">
+      <c r="A53" s="12"/>
+      <c r="B53" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -7643,23 +7457,23 @@
       <c r="G53" s="5">
         <v>3</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="6">
         <f>WORKDAY(I37,1)</f>
         <v>44860</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="6">
         <f t="shared" ref="I53" si="25">WORKDAY(H53,G53)</f>
         <v>44865</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K53" s="21"/>
+      <c r="K53" s="18"/>
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="24" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="20" t="s">
         <v>107</v>
       </c>
       <c r="C54" s="5"/>
@@ -7667,21 +7481,21 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="21"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="18"/>
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="25" t="s">
+      <c r="A55" s="10"/>
+      <c r="B55" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E55" s="5" t="s">
@@ -7693,29 +7507,29 @@
       <c r="G55" s="5">
         <v>1</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="6">
         <f>WORKDAY(I53,1)</f>
         <v>44866</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="6">
         <f t="shared" ref="I55:I56" si="26">WORKDAY(H55,G55)</f>
         <v>44867</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="J55" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K55" s="22"/>
+      <c r="K55" s="19"/>
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="25" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E56" s="5" t="s">
@@ -7727,23 +7541,23 @@
       <c r="G56" s="5">
         <v>1</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="6">
         <f>WORKDAY(I55,1)</f>
         <v>44868</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="6">
         <f t="shared" si="26"/>
         <v>44869</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K56" s="21"/>
+      <c r="K56" s="18"/>
       <c r="L56" s="4"/>
     </row>
     <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="24" t="s">
+      <c r="A57" s="12"/>
+      <c r="B57" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C57" s="5"/>
@@ -7751,21 +7565,21 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="21"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="18"/>
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="25" t="s">
+      <c r="A58" s="12"/>
+      <c r="B58" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -7777,29 +7591,29 @@
       <c r="G58" s="5">
         <v>1</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="6">
         <f>WORKDAY(I56,1)</f>
         <v>44872</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="6">
         <f t="shared" ref="I58:I60" si="27">WORKDAY(H58,G58)</f>
         <v>44873</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="J58" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K58" s="21"/>
+      <c r="K58" s="18"/>
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="25" t="s">
+      <c r="A59" s="12"/>
+      <c r="B59" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E59" s="5" t="s">
@@ -7811,27 +7625,27 @@
       <c r="G59" s="5">
         <v>3</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="6">
         <f>WORKDAY(I52,1)</f>
         <v>44854</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="6">
         <f t="shared" si="27"/>
         <v>44859</v>
       </c>
-      <c r="J59" s="7"/>
-      <c r="K59" s="21"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="18"/>
       <c r="L59" s="4"/>
     </row>
     <row r="60" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="25" t="s">
+      <c r="A60" s="12"/>
+      <c r="B60" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E60" s="5" t="s">
@@ -7843,29 +7657,29 @@
       <c r="G60" s="5">
         <v>1</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="6">
         <f t="shared" ref="H60" si="28">WORKDAY(I59,1)</f>
         <v>44860</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="6">
         <f t="shared" si="27"/>
         <v>44861</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J60" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K60" s="21"/>
+      <c r="K60" s="18"/>
       <c r="L60" s="4"/>
     </row>
     <row r="61" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="25" t="s">
+      <c r="A61" s="12"/>
+      <c r="B61" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E61" s="5" t="s">
@@ -7875,29 +7689,29 @@
       <c r="G61" s="5">
         <v>1</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="6">
         <f t="shared" ref="H61:H62" si="29">WORKDAY(I60,1)</f>
         <v>44862</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="6">
         <f t="shared" ref="I61:I62" si="30">WORKDAY(H61,G61)</f>
         <v>44865</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="J61" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K61" s="21"/>
+      <c r="K61" s="18"/>
       <c r="L61" s="4"/>
     </row>
     <row r="62" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="25" t="s">
+      <c r="A62" s="12"/>
+      <c r="B62" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E62" s="5" t="s">
@@ -7907,25 +7721,25 @@
       <c r="G62" s="5">
         <v>3</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="6">
         <f t="shared" si="29"/>
         <v>44866</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="6">
         <f t="shared" si="30"/>
         <v>44869</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="J62" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K62" s="21"/>
+      <c r="K62" s="18"/>
       <c r="L62" s="4"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
+      <c r="A63" s="10">
         <v>1.5</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C63" s="5"/>
@@ -7933,15 +7747,15 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
       <c r="J63" s="5"/>
-      <c r="K63" s="22"/>
+      <c r="K63" s="19"/>
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="25" t="s">
+      <c r="A64" s="12"/>
+      <c r="B64" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C64" s="4"/>
@@ -7949,15 +7763,15 @@
       <c r="E64" s="4"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="21"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="18"/>
       <c r="L64" s="4"/>
     </row>
     <row r="65" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="25" t="s">
+      <c r="A65" s="11"/>
+      <c r="B65" s="21" t="s">
         <v>110</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -7971,23 +7785,23 @@
       <c r="G65" s="5">
         <v>3</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="6">
         <f>WORKDAY(I53,1)</f>
         <v>44866</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="6">
         <f t="shared" ref="I65" si="31">WORKDAY(H65,G65)</f>
         <v>44869</v>
       </c>
-      <c r="J65" s="7" t="s">
+      <c r="J65" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K65" s="21"/>
+      <c r="K65" s="18"/>
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="25" t="s">
+      <c r="A66" s="11"/>
+      <c r="B66" s="21" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -8001,23 +7815,23 @@
       <c r="G66" s="5">
         <v>1</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="6">
         <f t="shared" ref="H66" si="32">WORKDAY(I65,1)</f>
         <v>44872</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="6">
         <f t="shared" ref="I66" si="33">WORKDAY(H66,G66)</f>
         <v>44873</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="J66" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K66" s="21"/>
+      <c r="K66" s="18"/>
       <c r="L66" s="4"/>
     </row>
     <row r="67" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="25" t="s">
+      <c r="A67" s="24"/>
+      <c r="B67" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -8026,26 +7840,26 @@
       <c r="D67" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E67" s="7"/>
+      <c r="E67" s="5"/>
       <c r="F67" s="4"/>
       <c r="G67" s="5">
         <v>1</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="6">
         <f t="shared" ref="H67:H68" si="34">WORKDAY(I66,1)</f>
         <v>44874</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="6">
         <f t="shared" ref="I67:I68" si="35">WORKDAY(H67,G67)</f>
         <v>44875</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="J67" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="25" t="s">
+      <c r="A68" s="24"/>
+      <c r="B68" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -8061,35 +7875,35 @@
       <c r="G68" s="5">
         <v>3</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="6">
         <f t="shared" si="34"/>
         <v>44876</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="6">
         <f t="shared" si="35"/>
         <v>44881</v>
       </c>
-      <c r="J68" s="7" t="s">
+      <c r="J68" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="25" t="s">
+      <c r="A69" s="24"/>
+      <c r="B69" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="7"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="7"/>
+      <c r="E69" s="5"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="29"/>
+      <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="25" t="s">
+      <c r="A70" s="24"/>
+      <c r="B70" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -8098,26 +7912,26 @@
       <c r="D70" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E70" s="7"/>
+      <c r="E70" s="5"/>
       <c r="F70" s="4"/>
       <c r="G70" s="5">
         <v>2</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="6">
         <f>WORKDAY(I53,1)</f>
         <v>44866</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="6">
         <f t="shared" ref="I70:I72" si="36">WORKDAY(H70,G70)</f>
         <v>44868</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J70" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="25" t="s">
+      <c r="A71" s="24"/>
+      <c r="B71" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -8126,29 +7940,29 @@
       <c r="D71" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E71" s="7"/>
+      <c r="E71" s="5"/>
       <c r="F71" s="4"/>
       <c r="G71" s="5">
         <v>1</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="6">
         <f t="shared" ref="H71:H72" si="37">WORKDAY(I70,1)</f>
         <v>44869</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="6">
         <f t="shared" si="36"/>
         <v>44872</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="J71" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="25" t="s">
+      <c r="A72" s="24"/>
+      <c r="B72" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D72" s="4"/>
@@ -8161,49 +7975,49 @@
       <c r="G72" s="5">
         <v>5</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="6">
         <f t="shared" si="37"/>
         <v>44873</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="6">
         <f t="shared" si="36"/>
         <v>44880</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="J72" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="25" t="s">
+      <c r="A73" s="24"/>
+      <c r="B73" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E73" s="7"/>
+      <c r="E73" s="5"/>
       <c r="F73" s="4"/>
       <c r="G73" s="5">
         <v>5</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="6">
         <f>WORKDAY(I62,1)</f>
         <v>44872</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="6">
         <f t="shared" ref="I73" si="38">WORKDAY(H73,G73)</f>
         <v>44879</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="J73" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="25" t="s">
+      <c r="A74" s="24"/>
+      <c r="B74" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -8212,29 +8026,29 @@
       <c r="D74" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="7"/>
+      <c r="E74" s="5"/>
       <c r="F74" s="4"/>
       <c r="G74" s="5">
         <v>1</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="6">
         <f>WORKDAY(I62,1)</f>
         <v>44872</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="6">
         <f t="shared" ref="I74:I75" si="39">WORKDAY(H74,G74)</f>
         <v>44873</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="J74" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="25" t="s">
+      <c r="A75" s="24"/>
+      <c r="B75" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D75" s="4"/>
@@ -8247,24 +8061,24 @@
       <c r="G75" s="5">
         <v>5</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75" s="6">
         <f>WORKDAY(I74,1)</f>
         <v>44874</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I75" s="6">
         <f t="shared" si="39"/>
         <v>44881</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="25" t="s">
+      <c r="A76" s="24"/>
+      <c r="B76" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D76" s="4"/>
@@ -8274,54 +8088,54 @@
       <c r="F76" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G76" s="29">
+      <c r="G76" s="4">
         <v>0</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H76" s="6">
         <f>WORKDAY(I75,1)</f>
         <v>44882</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I76" s="6">
         <f t="shared" ref="I76" si="40">WORKDAY(H76,G76)</f>
         <v>44882</v>
       </c>
-      <c r="J76" s="7" t="s">
+      <c r="J76" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="28">
+      <c r="A77" s="24">
         <v>1.6</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="7"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="7"/>
+      <c r="E77" s="5"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="29"/>
+      <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="24" t="s">
+      <c r="A78" s="24"/>
+      <c r="B78" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="7"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="7"/>
+      <c r="E78" s="5"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="29"/>
+      <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="28"/>
-      <c r="B79" s="25" t="s">
+      <c r="A79" s="24"/>
+      <c r="B79" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -8332,24 +8146,24 @@
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="29">
+      <c r="G79" s="4">
         <v>0</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H79" s="6">
         <f>WORKDAY(I37,1)</f>
         <v>44860</v>
       </c>
-      <c r="I79" s="8">
+      <c r="I79" s="6">
         <f t="shared" ref="I79" si="41">WORKDAY(H79,G79)</f>
         <v>44860</v>
       </c>
-      <c r="J79" s="7" t="s">
+      <c r="J79" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="25" t="s">
+      <c r="A80" s="24"/>
+      <c r="B80" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -8360,24 +8174,24 @@
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="29">
+      <c r="G80" s="4">
         <v>0</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H80" s="6">
         <f>WORKDAY(I79,1)</f>
         <v>44861</v>
       </c>
-      <c r="I80" s="8">
+      <c r="I80" s="6">
         <f t="shared" ref="I80" si="42">WORKDAY(H80,G80)</f>
         <v>44861</v>
       </c>
-      <c r="J80" s="7" t="s">
+      <c r="J80" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="25" t="s">
+      <c r="A81" s="24"/>
+      <c r="B81" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -8388,24 +8202,24 @@
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="29">
+      <c r="G81" s="4">
         <v>0</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H81" s="6">
         <f>WORKDAY(I80,1)</f>
         <v>44862</v>
       </c>
-      <c r="I81" s="8">
+      <c r="I81" s="6">
         <f t="shared" ref="I81:I82" si="43">WORKDAY(H81,G81)</f>
         <v>44862</v>
       </c>
-      <c r="J81" s="7" t="s">
+      <c r="J81" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
-      <c r="B82" s="25" t="s">
+      <c r="A82" s="24"/>
+      <c r="B82" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -8418,24 +8232,24 @@
         <v>114</v>
       </c>
       <c r="F82" s="5"/>
-      <c r="G82" s="29">
+      <c r="G82" s="4">
         <v>5</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H82" s="6">
         <f>WORKDAY(I81,1)</f>
         <v>44865</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I82" s="6">
         <f t="shared" si="43"/>
         <v>44872</v>
       </c>
-      <c r="J82" s="7" t="s">
+      <c r="J82" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="B83" s="25" t="s">
+      <c r="A83" s="24"/>
+      <c r="B83" s="21" t="s">
         <v>58</v>
       </c>
       <c r="C83" s="5" t="s">
@@ -8448,24 +8262,24 @@
         <v>114</v>
       </c>
       <c r="F83" s="5"/>
-      <c r="G83" s="29">
+      <c r="G83" s="4">
         <v>0</v>
       </c>
-      <c r="H83" s="8">
+      <c r="H83" s="6">
         <f>WORKDAY(I82,1)</f>
         <v>44873</v>
       </c>
-      <c r="I83" s="8">
+      <c r="I83" s="6">
         <f t="shared" ref="I83" si="44">WORKDAY(H83,G83)</f>
         <v>44873</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="J83" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="28"/>
-      <c r="B84" s="25" t="s">
+      <c r="A84" s="24"/>
+      <c r="B84" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -8476,38 +8290,38 @@
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="29">
+      <c r="G84" s="4">
         <v>5</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H84" s="6">
         <f>WORKDAY(I83,1)</f>
         <v>44874</v>
       </c>
-      <c r="I84" s="8">
+      <c r="I84" s="6">
         <f t="shared" ref="I84" si="45">WORKDAY(H84,G84)</f>
         <v>44881</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="J84" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="24" t="s">
+      <c r="A85" s="24"/>
+      <c r="B85" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C85" s="7"/>
+      <c r="C85" s="5"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="7"/>
+      <c r="E85" s="5"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="29"/>
+      <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="25" t="s">
+      <c r="A86" s="24"/>
+      <c r="B86" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C86" s="5" t="s">
@@ -8518,24 +8332,24 @@
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="29">
+      <c r="G86" s="4">
         <v>0</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H86" s="6">
         <f>WORKDAY(I84,1)</f>
         <v>44882</v>
       </c>
-      <c r="I86" s="8">
+      <c r="I86" s="6">
         <f t="shared" ref="I86:I87" si="46">WORKDAY(H86,G86)</f>
         <v>44882</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J86" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
-      <c r="B87" s="25" t="s">
+      <c r="A87" s="24"/>
+      <c r="B87" s="21" t="s">
         <v>62</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -8546,24 +8360,24 @@
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="29">
+      <c r="G87" s="4">
         <v>0</v>
       </c>
-      <c r="H87" s="8">
+      <c r="H87" s="6">
         <f>WORKDAY(I86,1)</f>
         <v>44883</v>
       </c>
-      <c r="I87" s="8">
+      <c r="I87" s="6">
         <f t="shared" si="46"/>
         <v>44883</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="J87" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="28"/>
-      <c r="B88" s="25" t="s">
+      <c r="A88" s="24"/>
+      <c r="B88" s="21" t="s">
         <v>63</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -8574,24 +8388,24 @@
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="29">
+      <c r="G88" s="4">
         <v>0</v>
       </c>
-      <c r="H88" s="8">
+      <c r="H88" s="6">
         <f>WORKDAY(I87,1)</f>
         <v>44886</v>
       </c>
-      <c r="I88" s="8">
+      <c r="I88" s="6">
         <f t="shared" ref="I88:I91" si="47">WORKDAY(H88,G88)</f>
         <v>44886</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="J88" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="25" t="s">
+      <c r="A89" s="24"/>
+      <c r="B89" s="21" t="s">
         <v>64</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -8602,24 +8416,24 @@
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="29">
+      <c r="G89" s="4">
         <v>0</v>
       </c>
-      <c r="H89" s="8">
+      <c r="H89" s="6">
         <f>WORKDAY(I88,1)</f>
         <v>44887</v>
       </c>
-      <c r="I89" s="8">
+      <c r="I89" s="6">
         <f t="shared" si="47"/>
         <v>44887</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="J89" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="28"/>
-      <c r="B90" s="25" t="s">
+      <c r="A90" s="24"/>
+      <c r="B90" s="21" t="s">
         <v>65</v>
       </c>
       <c r="C90" s="5" t="s">
@@ -8630,24 +8444,24 @@
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="29">
+      <c r="G90" s="4">
         <v>2</v>
       </c>
-      <c r="H90" s="8">
+      <c r="H90" s="6">
         <f>WORKDAY(I89,1)</f>
         <v>44888</v>
       </c>
-      <c r="I90" s="8">
+      <c r="I90" s="6">
         <f t="shared" si="47"/>
         <v>44890</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="J90" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="28"/>
-      <c r="B91" s="25" t="s">
+      <c r="A91" s="24"/>
+      <c r="B91" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C91" s="5" t="s">
@@ -8658,40 +8472,40 @@
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="29">
+      <c r="G91" s="4">
         <v>0</v>
       </c>
-      <c r="H91" s="8">
+      <c r="H91" s="6">
         <f>WORKDAY(I90,1)</f>
         <v>44893</v>
       </c>
-      <c r="I91" s="8">
+      <c r="I91" s="6">
         <f t="shared" si="47"/>
         <v>44893</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="J91" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="28">
+      <c r="A92" s="24">
         <v>1.7</v>
       </c>
-      <c r="B92" s="24" t="s">
+      <c r="B92" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C92" s="7"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="7"/>
+      <c r="E92" s="5"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="29"/>
+      <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
-      <c r="B93" s="25" t="s">
+      <c r="A93" s="24"/>
+      <c r="B93" s="21" t="s">
         <v>68</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -8702,24 +8516,24 @@
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="29">
+      <c r="G93" s="4">
         <v>1</v>
       </c>
-      <c r="H93" s="8">
+      <c r="H93" s="6">
         <f>WORKDAY(I91,1)</f>
         <v>44894</v>
       </c>
-      <c r="I93" s="8">
+      <c r="I93" s="6">
         <f t="shared" ref="I93:I97" si="48">WORKDAY(H93,G93)</f>
         <v>44895</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="J93" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="28"/>
-      <c r="B94" s="25" t="s">
+      <c r="A94" s="24"/>
+      <c r="B94" s="21" t="s">
         <v>69</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -8730,24 +8544,24 @@
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="29">
+      <c r="G94" s="4">
         <v>1</v>
       </c>
-      <c r="H94" s="8">
+      <c r="H94" s="6">
         <f>WORKDAY(I93,1)</f>
         <v>44896</v>
       </c>
-      <c r="I94" s="8">
+      <c r="I94" s="6">
         <f t="shared" si="48"/>
         <v>44897</v>
       </c>
-      <c r="J94" s="7" t="s">
+      <c r="J94" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="28"/>
-      <c r="B95" s="25" t="s">
+      <c r="A95" s="24"/>
+      <c r="B95" s="21" t="s">
         <v>70</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -8758,24 +8572,24 @@
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="29">
+      <c r="G95" s="4">
         <v>1</v>
       </c>
-      <c r="H95" s="8">
+      <c r="H95" s="6">
         <f>WORKDAY(I94,1)</f>
         <v>44900</v>
       </c>
-      <c r="I95" s="8">
+      <c r="I95" s="6">
         <f t="shared" si="48"/>
         <v>44901</v>
       </c>
-      <c r="J95" s="7" t="s">
+      <c r="J95" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="28"/>
-      <c r="B96" s="25" t="s">
+      <c r="A96" s="24"/>
+      <c r="B96" s="21" t="s">
         <v>71</v>
       </c>
       <c r="C96" s="5" t="s">
@@ -8786,24 +8600,24 @@
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="29">
+      <c r="G96" s="4">
         <v>1</v>
       </c>
-      <c r="H96" s="8">
+      <c r="H96" s="6">
         <f>WORKDAY(I95,1)</f>
         <v>44902</v>
       </c>
-      <c r="I96" s="8">
+      <c r="I96" s="6">
         <f t="shared" si="48"/>
         <v>44903</v>
       </c>
-      <c r="J96" s="7" t="s">
+      <c r="J96" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="28"/>
-      <c r="B97" s="25" t="s">
+      <c r="A97" s="24"/>
+      <c r="B97" s="21" t="s">
         <v>72</v>
       </c>
       <c r="C97" s="5" t="s">
@@ -8814,280 +8628,280 @@
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="29">
+      <c r="G97" s="4">
         <v>1</v>
       </c>
-      <c r="H97" s="8">
+      <c r="H97" s="6">
         <f>WORKDAY(I96,1)</f>
         <v>44904</v>
       </c>
-      <c r="I97" s="8">
+      <c r="I97" s="6">
         <f t="shared" si="48"/>
         <v>44907</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="J97" s="5" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I66"/>
+  <autoFilter ref="I1:I66" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="J1 J19 J3:J4 J7:J8 J57:J62 J69 J77:J78 J85 J92 J98:J1048576 J49:J50 J54 J28:J37">
-    <cfRule type="cellIs" dxfId="93" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="283" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="284" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J64:J66">
-    <cfRule type="cellIs" dxfId="91" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="243" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="244" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:L11">
-    <cfRule type="cellIs" dxfId="89" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="227" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="228" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:L24">
-    <cfRule type="cellIs" dxfId="87" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="225" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="226" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:L55">
-    <cfRule type="cellIs" dxfId="85" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="223" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="224" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63">
-    <cfRule type="cellIs" dxfId="83" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="209" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="210" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="81" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="213" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="214" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:L63">
-    <cfRule type="cellIs" dxfId="79" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="207" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="208" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="77" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="181" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="182" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53">
-    <cfRule type="cellIs" dxfId="75" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="175" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="176" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="73" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="171" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="172" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:J48">
-    <cfRule type="cellIs" dxfId="71" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="135" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="136" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="cellIs" dxfId="69" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="145" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="146" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="67" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56">
-    <cfRule type="cellIs" dxfId="65" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="81" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="82" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="63" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="97" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="98" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J43">
-    <cfRule type="cellIs" dxfId="61" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="85" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="86" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="cellIs" dxfId="57" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="75" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="76" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67">
-    <cfRule type="cellIs" dxfId="55" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="73" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="74" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68">
-    <cfRule type="cellIs" dxfId="53" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="71" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="72" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J70:J72">
-    <cfRule type="cellIs" dxfId="51" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="69" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="49" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="68" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74:J76">
-    <cfRule type="cellIs" dxfId="47" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="65" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="66" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J79:J84">
-    <cfRule type="cellIs" dxfId="45" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J86:J91">
-    <cfRule type="cellIs" dxfId="43" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="59" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="60" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93:J97">
-    <cfRule type="cellIs" dxfId="41" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="57" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="58" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="39" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="55" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="56" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:L15">
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:L25">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
